--- a/biology/Zoologie/Charaxinae/Charaxinae.xlsx
+++ b/biology/Zoologie/Charaxinae/Charaxinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Charaxinae sont une sous-famille de lépidoptères (papillons) appartenant à la famille des Nymphalidae. La sous-famille compte environ 300 espèces décrites réparties dans six tribus et de nombreux genres. Cependant, la monophylie et la classification de nombreux genres et tribus n'ont pas été étudiées à l'aide d'une approche phylogénétique et de ce fait demeurent provisoire.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Charaxinae sont des papillons des régions tropicales à l'exception de Charaxes jasius, le Pacha à deux queues, la seule espèce européenne, rencontrée sur l'intégralité du pourtour méditerranéen, ainsi que d'Anaea troglodyta, dont la distribution s'étend à l'Amérique du Nord. La tribu des Charaxini est principalement distribuée en Afrique subsaharienne ainsi qu'en Asie du Sud-Est et dans les îles du Pacifique (sous-genre Polyura). La tribu des Pallini est endémique d'Afrique tropicale. La tribu des Prothoini est distribuée en Asie du Sud-Est, et les tribus des Anaeini, Anaeomorphini et Preponini sont néotropicales.
 </t>
@@ -542,11 +556,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-famille des Charaxinae a été décrite par l’entomologiste français Achille Guénée en 1865. Les relations phylogénétiques au sein de la sous-famille demeurent majoritairement inconnues. Plusieurs études de systématique portant sur différents genres de Charaxinae ont permis d'émettre certaines hypothèses relatives au positionnements des différentes tribus, mais une approche génomique sera nécessaire pour mettre en lumière l'histoire évolutive du groupe. Il semble que les tribus Charaxini et Pallini soient proches[1], à l'instar des tribus Anaeini et Anaeomorphini[2]. Les relations phylogénétiques des tribus Preponini et Prothoini demeurent cependant floues.
-Taxinomie
-Liste des tribus et genres
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Charaxinae a été décrite par l’entomologiste français Achille Guénée en 1865. Les relations phylogénétiques au sein de la sous-famille demeurent majoritairement inconnues. Plusieurs études de systématique portant sur différents genres de Charaxinae ont permis d'émettre certaines hypothèses relatives au positionnements des différentes tribus, mais une approche génomique sera nécessaire pour mettre en lumière l'histoire évolutive du groupe. Il semble que les tribus Charaxini et Pallini soient proches, à l'instar des tribus Anaeini et Anaeomorphini. Les relations phylogénétiques des tribus Preponini et Prothoini demeurent cependant floues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Charaxinae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxinae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des tribus et genres
 Tribu des Anaeini 
 Anaea Hübner, 1819
 Coenophlebia C. et R. Felder, 1862
